--- a/cypress/Excels/Adding beneficiaries.xlsx
+++ b/cypress/Excels/Adding beneficiaries.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -402,7 +402,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,9 +445,6 @@
       <c r="D2">
         <v>9019803837</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2">
         <v>576101</v>
       </c>

--- a/cypress/Excels/Adding beneficiaries.xlsx
+++ b/cypress/Excels/Adding beneficiaries.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>Pradeep</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,6 +454,9 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>

--- a/cypress/Excels/Adding beneficiaries.xlsx
+++ b/cypress/Excels/Adding beneficiaries.xlsx
@@ -19,9 +19,6 @@
     <t>username</t>
   </si>
   <si>
-    <t>karthik.s@pococare.com</t>
-  </si>
-  <si>
     <t>Full name</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>Pradeep</t>
+  </si>
+  <si>
+    <t>playstoretest@pococare.com</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,30 +420,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>9019803837</v>
@@ -455,16 +455,16 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>9865325658</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>576101</v>

--- a/cypress/Excels/Adding beneficiaries.xlsx
+++ b/cypress/Excels/Adding beneficiaries.xlsx
@@ -37,19 +37,19 @@
     <t>Brother</t>
   </si>
   <si>
-    <t>Manu</t>
-  </si>
-  <si>
     <t>Udupi</t>
   </si>
   <si>
     <t>Others</t>
   </si>
   <si>
-    <t>Pradeep</t>
-  </si>
-  <si>
     <t>playstoretest@pococare.com</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,10 +437,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -455,16 +455,16 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>9865325658</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>576101</v>
